--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_0_33.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>42156.45181069196</v>
+        <v>2714377.862994609</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>42156.45181069196</v>
+        <v>2714377.862994609</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1417665101.624812</v>
+        <v>55018819.65215535</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12385.09680326231</v>
+        <v>1164923.76230765</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24770.19360652463</v>
+        <v>2329847.524615299</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37155.29040978693</v>
+        <v>3494771.286922951</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50832.08147959614</v>
+        <v>4589704.83125046</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>64508.87254940531</v>
+        <v>5684638.375577969</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>78185.66361921449</v>
+        <v>6779571.919905475</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>91862.45468902365</v>
+        <v>7874505.464232979</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>105539.2457588329</v>
+        <v>8969439.008560482</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>119216.0368286421</v>
+        <v>10064372.55288799</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>132892.8278984514</v>
+        <v>11159306.09721549</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>146228.3602154415</v>
+        <v>12269080.79363113</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>159240.188685878</v>
+        <v>13394191.92124209</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>172119.6044133412</v>
+        <v>14526163.1376657</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>186971.1905631343</v>
+        <v>15497849.88148622</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>201822.7767129276</v>
+        <v>16469536.62530674</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>217</v>
@@ -27052,19 +27052,19 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>217</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L2" t="n">
         <v>28.00000000022976</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,22 +27144,22 @@
         <v>1374</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
